--- a/2 course/lab441/lab441.xlsx
+++ b/2 course/lab441/lab441.xlsx
@@ -1,39 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kekoveca/Documents/MIPT/physics/2 course/lab441/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alex\Documents\Physics_labs\2 course\lab441\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A37441-2D87-FF44-8DD2-74A02C21313E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B37B34C-B528-491F-A86E-E855E003FEEA}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00A89363-ECD9-6D45-B154-189D337C9C39}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="65">
   <si>
     <t>Отсчет угла</t>
   </si>
@@ -62,9 +54,6 @@
     <t>180 13 43</t>
   </si>
   <si>
-    <t>Фиол</t>
-  </si>
-  <si>
     <t>192 47 11</t>
   </si>
   <si>
@@ -89,27 +78,15 @@
     <t>Красн</t>
   </si>
   <si>
-    <t>197 47 23</t>
-  </si>
-  <si>
     <t>Син</t>
   </si>
   <si>
     <t>Голуб</t>
   </si>
   <si>
-    <t>194 25 59</t>
-  </si>
-  <si>
     <t>194 32 54</t>
   </si>
   <si>
-    <t>167 36 17</t>
-  </si>
-  <si>
-    <t>165 57 32</t>
-  </si>
-  <si>
     <t>165 49 10</t>
   </si>
   <si>
@@ -122,12 +99,6 @@
     <t>163 20 06</t>
   </si>
   <si>
-    <t>162 25 44</t>
-  </si>
-  <si>
-    <t>Желтые пары</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -192,13 +163,73 @@
   </si>
   <si>
     <t>ммz</t>
+  </si>
+  <si>
+    <t>Синий</t>
+  </si>
+  <si>
+    <t>Голубой</t>
+  </si>
+  <si>
+    <t>Зелёный</t>
+  </si>
+  <si>
+    <t>Желтый</t>
+  </si>
+  <si>
+    <t>$\lambda$, нм</t>
+  </si>
+  <si>
+    <t>Угол, град. мин. сек.</t>
+  </si>
+  <si>
+    <t>Ноль шкалы 180 14'43''</t>
+  </si>
+  <si>
+    <t>$\sin \\varphi_1$</t>
+  </si>
+  <si>
+    <t>$\sin \\varphi_{-1}$</t>
+  </si>
+  <si>
+    <t>192 01 11</t>
+  </si>
+  <si>
+    <t>168 10 17</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>Пары желтых спектров</t>
+  </si>
+  <si>
+    <t>Угол, сек</t>
+  </si>
+  <si>
+    <t>Угол, $\delta$ сек</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>dlambda</t>
+  </si>
+  <si>
+    <t>$D_{teor}$</t>
+  </si>
+  <si>
+    <t>D, сек/Ангстрем</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -227,6 +258,21 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -248,12 +294,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -262,10 +317,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -582,89 +650,103 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28FA054F-F58F-D843-81A5-54B553D46CAE}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:V34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="18" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="11" width="10.83203125" style="1"/>
-    <col min="12" max="12" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="10.875" style="1"/>
+    <col min="5" max="5" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.875" style="1"/>
+    <col min="10" max="10" width="10.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="22.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="10.875" style="1"/>
+    <col min="16" max="16" width="9.125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="25.125" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="18.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="10.875" style="1"/>
+    <col min="22" max="22" width="27.25" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" ht="20" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:22" s="2" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="4" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M1" s="6"/>
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>180</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="K2" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="5"/>
       <c r="L2" s="1" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="M2" s="1">
         <v>0.82</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>14</v>
       </c>
@@ -687,216 +769,1082 @@
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="I3" s="1">
         <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="M3" s="1">
         <v>2.83</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>9</v>
+      <c r="E4" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="I4" s="1">
         <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <f>A4+A3*60+A2*60*60</f>
+        <v>648883</v>
+      </c>
       <c r="C5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G5" s="1">
         <v>2</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="G6" s="1">
         <v>2</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>11</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G7" s="1">
         <v>3</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G8" s="1">
         <v>3</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+      <c r="P8" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q8" s="8"/>
+      <c r="R8" s="8"/>
+      <c r="S8" s="8"/>
+      <c r="T8" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="U8" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G9" s="1">
         <v>-1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>29</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="G10" s="1">
         <v>-1</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+        <v>23</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K10" s="4">
+        <v>404.7</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="P10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="U10" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="C11" s="4"/>
       <c r="G11" s="1">
         <v>-2</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K11" s="4">
+        <v>491.6</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R11" s="1">
+        <f>196*3600 + 56* 60 +24</f>
+        <v>708984</v>
+      </c>
+      <c r="S11" s="12">
+        <f>R12-R11</f>
+        <v>231</v>
+      </c>
+      <c r="U11" s="13">
+        <f>S11/$U$8</f>
+        <v>11</v>
+      </c>
+      <c r="V11" s="13">
+        <f>P11/(SQRT(2^2 - P11^2*0.579^2))</f>
+        <v>0.52236887268530308</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="1">
+        <v>404.7</v>
+      </c>
+      <c r="D12" s="4">
+        <f>192*3600+ 1*60+ 11</f>
+        <v>691271</v>
+      </c>
+      <c r="F12" s="4">
+        <f>168*3600+10*60+ 17</f>
+        <v>605417</v>
+      </c>
       <c r="G12" s="1">
         <v>-2</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K12" s="4">
+        <v>546.1</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="P12" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="R12" s="1">
+        <f>197*3600 + 15</f>
+        <v>709215</v>
+      </c>
+      <c r="S12" s="12"/>
+      <c r="U12" s="13"/>
+      <c r="V12" s="13"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1">
+        <v>491.6</v>
+      </c>
+      <c r="D13" s="4">
+        <f>194*3600+ 32*60+ 54</f>
+        <v>700374</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4">
+        <f>165*3600+ 49*60+ 10</f>
+        <v>596950</v>
+      </c>
       <c r="G13" s="1">
         <v>-3</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+      <c r="J13" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="4">
+        <v>577</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P13" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="R13" s="1">
+        <f>215*3600 + 11*60 + 51</f>
+        <v>774711</v>
+      </c>
+      <c r="S13" s="12">
+        <f>R14-R13</f>
+        <v>495</v>
+      </c>
+      <c r="U13" s="13">
+        <f t="shared" ref="U12:U22" si="0">S13/$U$8</f>
+        <v>23.571428571428573</v>
+      </c>
+      <c r="V13" s="13">
+        <f>P13/(SQRT(20000^2 - (P13^2)*(5790^2)))</f>
+        <v>1.2265009447692888E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1">
+        <v>546.1</v>
+      </c>
+      <c r="D14" s="4">
+        <f>196*3600+ 60*1+ 37</f>
+        <v>705697</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4">
+        <f>3600*164 +19*60+ 34</f>
+        <v>591574</v>
+      </c>
       <c r="G14" s="1">
         <v>-3</v>
       </c>
       <c r="H14" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="4">
+        <v>579.1</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P14" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R14" s="1">
+        <f>215*3600 + 20*60+ 6</f>
+        <v>775206</v>
+      </c>
+      <c r="S14" s="12"/>
+      <c r="U14" s="13"/>
+      <c r="V14" s="13"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1">
+        <v>577</v>
+      </c>
+      <c r="D15" s="4">
+        <f>196*3600+ 56*60+ 40</f>
+        <v>709000</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4">
+        <f>163*3600+ 23*60+ 46</f>
+        <v>588226</v>
+      </c>
+      <c r="P15" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="R15" s="1">
+        <f>239*3600 + 6</f>
+        <v>860406</v>
+      </c>
+      <c r="S15" s="12">
+        <f>R16-R15</f>
+        <v>1177</v>
+      </c>
+      <c r="U15" s="13">
+        <f t="shared" si="0"/>
+        <v>56.047619047619051</v>
+      </c>
+      <c r="V15" s="13">
+        <f t="shared" ref="V15:V22" si="1">P15/(SQRT(2000^2 - P15^2*579^2))</f>
+        <v>3.0260899384516832E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="1">
+        <v>579.1</v>
+      </c>
+      <c r="D16" s="4">
+        <f>197*3600+60* 0 +18</f>
+        <v>709218</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4">
+        <f>163*3600+ 20*60+ 6</f>
+        <v>588006</v>
+      </c>
+      <c r="P16" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R16" s="1">
+        <f>239*3600 + 19*60 + 43</f>
+        <v>861583</v>
+      </c>
+      <c r="S16" s="12"/>
+      <c r="U16" s="13"/>
+      <c r="V16" s="13"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="P17" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q17" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="R17" s="1">
+        <f>163*3600 + 23*60 + 46</f>
+        <v>588226</v>
+      </c>
+      <c r="S17" s="12">
+        <f t="shared" ref="S17" si="2">R18-R17</f>
+        <v>-220</v>
+      </c>
+      <c r="U17" s="13">
+        <f t="shared" si="0"/>
+        <v>-10.476190476190476</v>
+      </c>
+      <c r="V17" s="13">
+        <f t="shared" ref="V17:V22" si="3">P17/(SQRT(2000^2 - P17^2*579^2))</f>
+        <v>-5.2236887268530309E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="P18" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q18" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R18" s="1">
+        <f>163 * 3600 + 20*60 + 6</f>
+        <v>588006</v>
+      </c>
+      <c r="S18" s="12"/>
+      <c r="U18" s="13"/>
+      <c r="V18" s="13"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="K19" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="P19" s="4">
+        <v>-2</v>
+      </c>
+      <c r="Q19" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="R19" s="1">
+        <f>144*3600+ 42*60 + 41</f>
+        <v>520961</v>
+      </c>
+      <c r="S19" s="12">
+        <f t="shared" ref="S19" si="4">R20-R19</f>
+        <v>-523</v>
+      </c>
+      <c r="U19" s="13">
+        <f t="shared" si="0"/>
+        <v>-24.904761904761905</v>
+      </c>
+      <c r="V19" s="13">
+        <f t="shared" ref="V19:V22" si="5">P19/(SQRT(2000^2 - P19^2*579^2))</f>
+        <v>-1.226500944769289E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="1">
+        <f>D12-$A$5</f>
+        <v>42388</v>
+      </c>
+      <c r="D20" s="1">
+        <f>4.85*10^(-6)*C20</f>
+        <v>0.20558179999999998</v>
+      </c>
+      <c r="E20" s="4">
+        <f>SIN(D20)</f>
+        <v>0.2041367431005871</v>
+      </c>
+      <c r="F20" s="4">
+        <f>F12-$A$5</f>
+        <v>-43466</v>
+      </c>
+      <c r="G20" s="4">
+        <f>4.85*10^(-6)*F20</f>
+        <v>-0.21081009999999997</v>
+      </c>
+      <c r="H20" s="4">
+        <f>SIN(G20)</f>
+        <v>-0.20925213420130517</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" s="4">
+        <v>404.7</v>
+      </c>
+      <c r="L20" s="11">
+        <v>0.2041367431005871</v>
+      </c>
+      <c r="M20" s="11">
+        <v>-0.20925213420130517</v>
+      </c>
+      <c r="P20" s="4">
+        <v>-2</v>
+      </c>
+      <c r="Q20" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R20" s="1">
+        <f>144*3600+33*60+58</f>
+        <v>520438</v>
+      </c>
+      <c r="S20" s="12"/>
+      <c r="U20" s="13"/>
+      <c r="V20" s="13"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="4">
+        <f>D13-$A$5</f>
+        <v>51491</v>
+      </c>
+      <c r="D21" s="4">
+        <f>4.85*10^(-6)*C21</f>
+        <v>0.24973134999999996</v>
+      </c>
+      <c r="E21" s="4">
+        <f>SIN(D21)</f>
+        <v>0.24714365200764044</v>
+      </c>
+      <c r="F21" s="4">
+        <f>F13-$A$5</f>
+        <v>-51933</v>
+      </c>
+      <c r="G21" s="4">
+        <f>4.85*10^(-6)*F21</f>
+        <v>-0.25187504999999999</v>
+      </c>
+      <c r="H21" s="4">
+        <f>SIN(G21)</f>
+        <v>-0.24922028251344838</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="K21" s="4">
+        <v>491.6</v>
+      </c>
+      <c r="L21" s="11">
+        <v>0.24714365200764044</v>
+      </c>
+      <c r="M21" s="11">
+        <v>-0.24922028251344838</v>
+      </c>
+      <c r="P21" s="4">
+        <v>-3</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R21" s="1">
+        <f>118*3600+57*60 + 40</f>
+        <v>428260</v>
+      </c>
+      <c r="S21" s="12">
+        <f t="shared" ref="S21" si="6">R22-R21</f>
+        <v>-1429</v>
+      </c>
+      <c r="U21" s="13">
+        <f t="shared" si="0"/>
+        <v>-68.047619047619051</v>
+      </c>
+      <c r="V21" s="13">
+        <f t="shared" ref="V21:V22" si="7">P21/(SQRT(2000^2 - P21^2*579^2))</f>
+        <v>-3.0260899384516832E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C22" s="4">
+        <f>D14-$A$5</f>
+        <v>56814</v>
+      </c>
+      <c r="D22" s="4">
+        <f>4.85*10^(-6)*C22</f>
+        <v>0.27554789999999996</v>
+      </c>
+      <c r="E22" s="4">
+        <f>SIN(D22)</f>
+        <v>0.27207420893707535</v>
+      </c>
+      <c r="F22" s="4">
+        <f>F14-$A$5</f>
+        <v>-57309</v>
+      </c>
+      <c r="G22" s="4">
+        <f>4.85*10^(-6)*F22</f>
+        <v>-0.27794864999999996</v>
+      </c>
+      <c r="H22" s="4">
+        <f>SIN(G22)</f>
+        <v>-0.27438360741622936</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="K22" s="4">
+        <v>546.1</v>
+      </c>
+      <c r="L22" s="11">
+        <v>0.27207420893707535</v>
+      </c>
+      <c r="M22" s="11">
+        <v>-0.27438360741622936</v>
+      </c>
+      <c r="P22" s="4">
+        <v>-3</v>
+      </c>
+      <c r="Q22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R22" s="1">
+        <f>118*3600+33*60+51</f>
+        <v>426831</v>
+      </c>
+      <c r="S22" s="12"/>
+      <c r="U22" s="13"/>
+      <c r="V22" s="13"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="4">
+        <f>D15-$A$5</f>
+        <v>60117</v>
+      </c>
+      <c r="D23" s="4">
+        <f>4.85*10^(-6)*C23</f>
+        <v>0.29156744999999995</v>
+      </c>
+      <c r="E23" s="4">
+        <f>SIN(D23)</f>
+        <v>0.28745387257459648</v>
+      </c>
+      <c r="F23" s="4">
+        <f>F15-$A$5</f>
+        <v>-60657</v>
+      </c>
+      <c r="G23" s="4">
+        <f>4.85*10^(-6)*F23</f>
+        <v>-0.29418644999999993</v>
+      </c>
+      <c r="H23" s="4">
+        <f>SIN(G23)</f>
+        <v>-0.28996134761156689</v>
+      </c>
+      <c r="J23" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K23" s="4">
+        <v>577</v>
+      </c>
+      <c r="L23" s="11">
+        <v>0.28745387257459648</v>
+      </c>
+      <c r="M23" s="11">
+        <v>-0.28996134761156689</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C24" s="4">
+        <f>D16-$A$5</f>
+        <v>60335</v>
+      </c>
+      <c r="D24" s="4">
+        <f>4.85*10^(-6)*C24</f>
+        <v>0.29262474999999993</v>
+      </c>
+      <c r="E24" s="4">
+        <f>SIN(D24)</f>
+        <v>0.28846638782258244</v>
+      </c>
+      <c r="F24" s="4">
+        <f>F16-$A$5</f>
+        <v>-60877</v>
+      </c>
+      <c r="G24" s="4">
+        <f>4.85*10^(-6)*F24</f>
+        <v>-0.29525344999999997</v>
+      </c>
+      <c r="H24" s="4">
+        <f>SIN(G24)</f>
+        <v>-0.29098234228590408</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24" s="4">
+        <v>579.1</v>
+      </c>
+      <c r="L24" s="11">
+        <v>0.28846638782258244</v>
+      </c>
+      <c r="M24" s="11">
+        <v>-0.29098234228590408</v>
+      </c>
+      <c r="P24" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q24" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="P25" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q25" s="14">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="P26" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q26" s="14">
+        <v>23.571428571428573</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A27" s="4"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="P27" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q27" s="14">
+        <v>56.047619047619051</v>
+      </c>
+      <c r="R27" s="1">
+        <f>R12-A5</f>
+        <v>60332</v>
+      </c>
+      <c r="S27" s="1">
+        <f>R27/S11</f>
+        <v>261.17748917748918</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A28" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="1">
+        <f>QUOTIENT(C20, 3600)</f>
+        <v>11</v>
+      </c>
+      <c r="C28" s="1">
+        <f>QUOTIENT(MOD(C20, 3600), 60)</f>
+        <v>46</v>
+      </c>
+      <c r="D28" s="1">
+        <f>MOD(MOD(C20,3600),60)</f>
+        <v>28</v>
+      </c>
+      <c r="F28" s="1">
+        <f>QUOTIENT(F20, 3600)</f>
+        <v>-12</v>
+      </c>
+      <c r="G28" s="1">
+        <f>QUOTIENT(MOD(F20, 3600), 60)</f>
+        <v>55</v>
+      </c>
+      <c r="H28" s="4">
+        <f>MOD(MOD(F20,3600),60)</f>
+        <v>34</v>
+      </c>
+      <c r="P28" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Q28" s="14">
+        <v>-10.476190476190476</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="P29" s="1">
+        <v>-2</v>
+      </c>
+      <c r="Q29" s="14">
+        <v>-24.904761904761905</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="4">
+        <f>QUOTIENT(C21, 3600)</f>
+        <v>14</v>
+      </c>
+      <c r="C30" s="4">
+        <f>QUOTIENT(MOD(C21, 3600), 60)</f>
+        <v>18</v>
+      </c>
+      <c r="D30" s="4">
+        <f>MOD(MOD(C21,3600),60)</f>
+        <v>11</v>
+      </c>
+      <c r="F30" s="4">
+        <f>QUOTIENT(F21, 3600)</f>
+        <v>-14</v>
+      </c>
+      <c r="G30" s="4">
+        <f>QUOTIENT(MOD(F21, 3600), 60)</f>
+        <v>34</v>
+      </c>
+      <c r="H30" s="4">
+        <f>MOD(MOD(F21,3600),60)</f>
+        <v>27</v>
+      </c>
+      <c r="P30" s="1">
+        <v>-3</v>
+      </c>
+      <c r="Q30" s="14">
+        <v>-68.047619047619051</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="4">
+        <f>QUOTIENT(C22, 3600)</f>
+        <v>15</v>
+      </c>
+      <c r="C31" s="4">
+        <f>QUOTIENT(MOD(C22, 3600), 60)</f>
+        <v>46</v>
+      </c>
+      <c r="D31" s="4">
+        <f>MOD(MOD(C22,3600),60)</f>
+        <v>54</v>
+      </c>
+      <c r="F31" s="4">
+        <f>QUOTIENT(F22, 3600)</f>
+        <v>-15</v>
+      </c>
+      <c r="G31" s="4">
+        <f>QUOTIENT(MOD(F22, 3600), 60)</f>
+        <v>4</v>
+      </c>
+      <c r="H31" s="4">
+        <f>MOD(MOD(F22,3600),60)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="4">
+        <f>QUOTIENT(C23, 3600)</f>
+        <v>16</v>
+      </c>
+      <c r="C32" s="4">
+        <f>QUOTIENT(MOD(C23, 3600), 60)</f>
         <v>41</v>
       </c>
+      <c r="D32" s="4">
+        <f>MOD(MOD(C23,3600),60)</f>
+        <v>57</v>
+      </c>
+      <c r="F32" s="4">
+        <f>QUOTIENT(F23, 3600)</f>
+        <v>-16</v>
+      </c>
+      <c r="G32" s="4">
+        <f>QUOTIENT(MOD(F23, 3600), 60)</f>
+        <v>9</v>
+      </c>
+      <c r="H32" s="4">
+        <f>MOD(MOD(F23,3600),60)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B33" s="4">
+        <f>QUOTIENT(C24, 3600)</f>
+        <v>16</v>
+      </c>
+      <c r="C33" s="4">
+        <f>QUOTIENT(MOD(C24, 3600), 60)</f>
+        <v>45</v>
+      </c>
+      <c r="D33" s="4">
+        <f>MOD(MOD(C24,3600),60)</f>
+        <v>35</v>
+      </c>
+      <c r="F33" s="4">
+        <f>QUOTIENT(F24, 3600)</f>
+        <v>-16</v>
+      </c>
+      <c r="G33" s="4">
+        <f>QUOTIENT(MOD(F24, 3600), 60)</f>
+        <v>5</v>
+      </c>
+      <c r="H33" s="4">
+        <f>MOD(MOD(F24,3600),60)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="4">
+        <f>QUOTIENT(C26, 3600)</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="4">
+        <f>QUOTIENT(MOD(C26, 3600), 60)</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="4">
+        <f>MOD(MOD(C26,3600),60)</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="4">
+        <f t="shared" ref="F29:F34" si="8">QUOTIENT(F26, 3600)</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="4">
+        <f t="shared" ref="G29:G34" si="9">QUOTIENT(MOD(F26, 3600), 60)</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="4">
+        <f t="shared" ref="H29:H34" si="10">MOD(MOD(F26,3600),60)</f>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="15">
+    <mergeCell ref="S21:S22"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="S11:S12"/>
+    <mergeCell ref="S13:S14"/>
+    <mergeCell ref="S15:S16"/>
+    <mergeCell ref="S17:S18"/>
+    <mergeCell ref="S19:S20"/>
+    <mergeCell ref="J8:M8"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="A1:B1"/>
@@ -905,5 +1853,6 @@
     <mergeCell ref="I1:K1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>